--- a/Federal/f1040sc-2023.xlsx
+++ b/Federal/f1040sc-2023.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="IRS f1040" sheetId="1" r:id="rId1"/>
+    <sheet name="IRS f1040 C" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -766,33 +766,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -802,10 +775,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -1169,40 +1169,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="34" t="s">
@@ -1341,16 +1341,16 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="41"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
@@ -1769,13 +1769,13 @@
       <c r="A39" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="B39" s="45" t="s">
+      <c r="B39" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="C39" s="40"/>
-      <c r="D39" s="40"/>
-      <c r="E39" s="40"/>
-      <c r="F39" s="40"/>
+      <c r="C39" s="39"/>
+      <c r="D39" s="39"/>
+      <c r="E39" s="39"/>
+      <c r="F39" s="39"/>
       <c r="G39" s="25" t="s">
         <v>67</v>
       </c>
@@ -1880,27 +1880,27 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="11"/>
-      <c r="B46" s="38" t="s">
+      <c r="B46" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="C46" s="38"/>
-      <c r="D46" s="38"/>
-      <c r="E46" s="38"/>
-      <c r="F46" s="38"/>
+      <c r="C46" s="40"/>
+      <c r="D46" s="40"/>
+      <c r="E46" s="40"/>
+      <c r="F46" s="40"/>
       <c r="G46" s="12"/>
       <c r="H46" s="13"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="39" t="s">
+      <c r="A48" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="B48" s="39"/>
-      <c r="C48" s="39"/>
-      <c r="D48" s="39"/>
-      <c r="E48" s="39"/>
-      <c r="F48" s="39"/>
-      <c r="G48" s="39"/>
-      <c r="H48" s="39"/>
+      <c r="B48" s="41"/>
+      <c r="C48" s="41"/>
+      <c r="D48" s="41"/>
+      <c r="E48" s="41"/>
+      <c r="F48" s="41"/>
+      <c r="G48" s="41"/>
+      <c r="H48" s="41"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
@@ -2061,7 +2061,7 @@
       <c r="A59" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="B59" s="46" t="s">
+      <c r="B59" s="42" t="s">
         <v>107</v>
       </c>
       <c r="C59" s="35"/>
@@ -2077,16 +2077,16 @@
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="36" t="s">
+      <c r="A60" s="43" t="s">
         <v>97</v>
       </c>
-      <c r="B60" s="36"/>
-      <c r="C60" s="36"/>
-      <c r="D60" s="36"/>
-      <c r="E60" s="36"/>
-      <c r="F60" s="36"/>
-      <c r="G60" s="36"/>
-      <c r="H60" s="36"/>
+      <c r="B60" s="43"/>
+      <c r="C60" s="43"/>
+      <c r="D60" s="43"/>
+      <c r="E60" s="43"/>
+      <c r="F60" s="43"/>
+      <c r="G60" s="43"/>
+      <c r="H60" s="43"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="17"/>
@@ -2137,106 +2137,106 @@
       <c r="H65" s="34"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="32"/>
-      <c r="B66" s="32"/>
-      <c r="C66" s="32"/>
-      <c r="D66" s="32"/>
-      <c r="E66" s="32"/>
-      <c r="F66" s="32"/>
-      <c r="G66" s="32"/>
+      <c r="A66" s="44"/>
+      <c r="B66" s="44"/>
+      <c r="C66" s="44"/>
+      <c r="D66" s="44"/>
+      <c r="E66" s="44"/>
+      <c r="F66" s="44"/>
+      <c r="G66" s="44"/>
       <c r="H66" s="4"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="32"/>
-      <c r="B67" s="32"/>
-      <c r="C67" s="32"/>
-      <c r="D67" s="32"/>
-      <c r="E67" s="32"/>
-      <c r="F67" s="32"/>
-      <c r="G67" s="32"/>
+      <c r="A67" s="44"/>
+      <c r="B67" s="44"/>
+      <c r="C67" s="44"/>
+      <c r="D67" s="44"/>
+      <c r="E67" s="44"/>
+      <c r="F67" s="44"/>
+      <c r="G67" s="44"/>
       <c r="H67" s="4"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="32"/>
-      <c r="B68" s="32"/>
-      <c r="C68" s="32"/>
-      <c r="D68" s="32"/>
-      <c r="E68" s="32"/>
-      <c r="F68" s="32"/>
-      <c r="G68" s="32"/>
+      <c r="A68" s="44"/>
+      <c r="B68" s="44"/>
+      <c r="C68" s="44"/>
+      <c r="D68" s="44"/>
+      <c r="E68" s="44"/>
+      <c r="F68" s="44"/>
+      <c r="G68" s="44"/>
       <c r="H68" s="4"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="32"/>
-      <c r="B69" s="32"/>
-      <c r="C69" s="32"/>
-      <c r="D69" s="32"/>
-      <c r="E69" s="32"/>
-      <c r="F69" s="32"/>
-      <c r="G69" s="32"/>
+      <c r="A69" s="44"/>
+      <c r="B69" s="44"/>
+      <c r="C69" s="44"/>
+      <c r="D69" s="44"/>
+      <c r="E69" s="44"/>
+      <c r="F69" s="44"/>
+      <c r="G69" s="44"/>
       <c r="H69" s="4"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="32"/>
-      <c r="B70" s="32"/>
-      <c r="C70" s="32"/>
-      <c r="D70" s="32"/>
-      <c r="E70" s="32"/>
-      <c r="F70" s="32"/>
-      <c r="G70" s="32"/>
+      <c r="A70" s="44"/>
+      <c r="B70" s="44"/>
+      <c r="C70" s="44"/>
+      <c r="D70" s="44"/>
+      <c r="E70" s="44"/>
+      <c r="F70" s="44"/>
+      <c r="G70" s="44"/>
       <c r="H70" s="4"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="32"/>
-      <c r="B71" s="32"/>
-      <c r="C71" s="32"/>
-      <c r="D71" s="32"/>
-      <c r="E71" s="32"/>
-      <c r="F71" s="32"/>
-      <c r="G71" s="32"/>
+      <c r="A71" s="44"/>
+      <c r="B71" s="44"/>
+      <c r="C71" s="44"/>
+      <c r="D71" s="44"/>
+      <c r="E71" s="44"/>
+      <c r="F71" s="44"/>
+      <c r="G71" s="44"/>
       <c r="H71" s="4"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="32"/>
-      <c r="B72" s="32"/>
-      <c r="C72" s="32"/>
-      <c r="D72" s="32"/>
-      <c r="E72" s="32"/>
-      <c r="F72" s="32"/>
-      <c r="G72" s="32"/>
+      <c r="A72" s="44"/>
+      <c r="B72" s="44"/>
+      <c r="C72" s="44"/>
+      <c r="D72" s="44"/>
+      <c r="E72" s="44"/>
+      <c r="F72" s="44"/>
+      <c r="G72" s="44"/>
       <c r="H72" s="4"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="32"/>
-      <c r="B73" s="32"/>
-      <c r="C73" s="32"/>
-      <c r="D73" s="32"/>
-      <c r="E73" s="32"/>
-      <c r="F73" s="32"/>
-      <c r="G73" s="32"/>
+      <c r="A73" s="44"/>
+      <c r="B73" s="44"/>
+      <c r="C73" s="44"/>
+      <c r="D73" s="44"/>
+      <c r="E73" s="44"/>
+      <c r="F73" s="44"/>
+      <c r="G73" s="44"/>
       <c r="H73" s="4"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="33"/>
-      <c r="B74" s="33"/>
-      <c r="C74" s="33"/>
-      <c r="D74" s="33"/>
-      <c r="E74" s="33"/>
-      <c r="F74" s="33"/>
-      <c r="G74" s="33"/>
+      <c r="A74" s="46"/>
+      <c r="B74" s="46"/>
+      <c r="C74" s="46"/>
+      <c r="D74" s="46"/>
+      <c r="E74" s="46"/>
+      <c r="F74" s="46"/>
+      <c r="G74" s="46"/>
       <c r="H74" s="23"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="B75" s="31" t="s">
+      <c r="B75" s="45" t="s">
         <v>103</v>
       </c>
-      <c r="C75" s="31"/>
-      <c r="D75" s="31"/>
-      <c r="E75" s="31"/>
-      <c r="F75" s="31"/>
+      <c r="C75" s="45"/>
+      <c r="D75" s="45"/>
+      <c r="E75" s="45"/>
+      <c r="F75" s="45"/>
       <c r="G75" s="25" t="s">
         <v>102</v>
       </c>
@@ -2247,77 +2247,77 @@
     </row>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="B22:F22"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="B25:F25"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="B29:F29"/>
-    <mergeCell ref="B30:F30"/>
-    <mergeCell ref="B31:F31"/>
-    <mergeCell ref="B32:F32"/>
-    <mergeCell ref="B33:F33"/>
-    <mergeCell ref="B34:F34"/>
-    <mergeCell ref="B35:F35"/>
-    <mergeCell ref="B36:F36"/>
-    <mergeCell ref="B37:F37"/>
-    <mergeCell ref="B38:F38"/>
-    <mergeCell ref="B39:F39"/>
-    <mergeCell ref="B40:F40"/>
-    <mergeCell ref="B41:F41"/>
-    <mergeCell ref="B42:F42"/>
-    <mergeCell ref="B43:F43"/>
-    <mergeCell ref="B44:F44"/>
-    <mergeCell ref="B45:F45"/>
-    <mergeCell ref="B46:F46"/>
-    <mergeCell ref="A48:H48"/>
-    <mergeCell ref="B50:F50"/>
-    <mergeCell ref="B51:F51"/>
-    <mergeCell ref="B52:F52"/>
-    <mergeCell ref="B53:F53"/>
-    <mergeCell ref="B54:F54"/>
-    <mergeCell ref="B55:F55"/>
-    <mergeCell ref="B56:F56"/>
-    <mergeCell ref="B57:F57"/>
-    <mergeCell ref="B58:F58"/>
-    <mergeCell ref="B59:F59"/>
-    <mergeCell ref="A60:H60"/>
-    <mergeCell ref="A65:H65"/>
-    <mergeCell ref="A66:G66"/>
-    <mergeCell ref="A67:G67"/>
-    <mergeCell ref="A68:G68"/>
-    <mergeCell ref="A69:G69"/>
     <mergeCell ref="B75:F75"/>
     <mergeCell ref="A70:G70"/>
     <mergeCell ref="A71:G71"/>
     <mergeCell ref="A72:G72"/>
     <mergeCell ref="A73:G73"/>
     <mergeCell ref="A74:G74"/>
+    <mergeCell ref="A65:H65"/>
+    <mergeCell ref="A66:G66"/>
+    <mergeCell ref="A67:G67"/>
+    <mergeCell ref="A68:G68"/>
+    <mergeCell ref="A69:G69"/>
+    <mergeCell ref="B56:F56"/>
+    <mergeCell ref="B57:F57"/>
+    <mergeCell ref="B58:F58"/>
+    <mergeCell ref="B59:F59"/>
+    <mergeCell ref="A60:H60"/>
+    <mergeCell ref="B51:F51"/>
+    <mergeCell ref="B52:F52"/>
+    <mergeCell ref="B53:F53"/>
+    <mergeCell ref="B54:F54"/>
+    <mergeCell ref="B55:F55"/>
+    <mergeCell ref="B44:F44"/>
+    <mergeCell ref="B45:F45"/>
+    <mergeCell ref="B46:F46"/>
+    <mergeCell ref="A48:H48"/>
+    <mergeCell ref="B50:F50"/>
+    <mergeCell ref="B39:F39"/>
+    <mergeCell ref="B40:F40"/>
+    <mergeCell ref="B41:F41"/>
+    <mergeCell ref="B42:F42"/>
+    <mergeCell ref="B43:F43"/>
+    <mergeCell ref="B34:F34"/>
+    <mergeCell ref="B35:F35"/>
+    <mergeCell ref="B36:F36"/>
+    <mergeCell ref="B37:F37"/>
+    <mergeCell ref="B38:F38"/>
+    <mergeCell ref="B29:F29"/>
+    <mergeCell ref="B30:F30"/>
+    <mergeCell ref="B31:F31"/>
+    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="B33:F33"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:H3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
